--- a/docs/assets/release/v0_2_0/jig/application.xlsx
+++ b/docs/assets/release/v0_2_0/jig/application.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="307">
   <si>
     <t/>
   </si>
@@ -48,6 +48,195 @@
     <t>パス</t>
   </si>
   <si>
+    <t>com.example.sms.presentation.api.master.department</t>
+  </si>
+  <si>
+    <t>DepartmentApiController</t>
+  </si>
+  <si>
+    <t>select(int, int[])</t>
+  </si>
+  <si>
+    <t>ResponseEntity</t>
+  </si>
+  <si>
+    <t>部門API</t>
+  </si>
+  <si>
+    <t>[DepartmentService]</t>
+  </si>
+  <si>
+    <t>/api/departments/</t>
+  </si>
+  <si>
+    <t>find(String, String)</t>
+  </si>
+  <si>
+    <t>[DateTimeFormatter, DepartmentService]</t>
+  </si>
+  <si>
+    <t>/api/departments/{departmentCode}/{departmentStartDate}</t>
+  </si>
+  <si>
+    <t>create(DepartmentResource)</t>
+  </si>
+  <si>
+    <t>[DateTimeFormatter, DepartmentService, Message]</t>
+  </si>
+  <si>
+    <t>update(String, String, DepartmentResource)</t>
+  </si>
+  <si>
+    <t>delete(String, String)</t>
+  </si>
+  <si>
+    <t>com.example.sms.presentation.api.master.employee</t>
+  </si>
+  <si>
+    <t>EmployeeApiController</t>
+  </si>
+  <si>
+    <t>社員API</t>
+  </si>
+  <si>
+    <t>[EmployeeService]</t>
+  </si>
+  <si>
+    <t>/api/employees/</t>
+  </si>
+  <si>
+    <t>find(String)</t>
+  </si>
+  <si>
+    <t>/api/employees/{employeeCode}</t>
+  </si>
+  <si>
+    <t>create(EmployeeResource)</t>
+  </si>
+  <si>
+    <t>[DateTimeFormatter, EmployeeService, Message]</t>
+  </si>
+  <si>
+    <t>update(String, EmployeeResource)</t>
+  </si>
+  <si>
+    <t>delete(String)</t>
+  </si>
+  <si>
+    <t>[EmployeeService, Message]</t>
+  </si>
+  <si>
+    <t>com.example.sms.presentation.api.master.product</t>
+  </si>
+  <si>
+    <t>ProductApiController</t>
+  </si>
+  <si>
+    <t>商品API</t>
+  </si>
+  <si>
+    <t>[ProductService]</t>
+  </si>
+  <si>
+    <t>/api/products/</t>
+  </si>
+  <si>
+    <t>selectBoms(int, int[])</t>
+  </si>
+  <si>
+    <t>/api/products/boms</t>
+  </si>
+  <si>
+    <t>select(String)</t>
+  </si>
+  <si>
+    <t>/api/products/{productCode}</t>
+  </si>
+  <si>
+    <t>create(ProductResource)</t>
+  </si>
+  <si>
+    <t>[Message, ProductService]</t>
+  </si>
+  <si>
+    <t>update(String, ProductResource)</t>
+  </si>
+  <si>
+    <t>ProductCategoryApiController</t>
+  </si>
+  <si>
+    <t>商品分類API</t>
+  </si>
+  <si>
+    <t>/api/product/categories/</t>
+  </si>
+  <si>
+    <t>/api/product/categories/{productCategoryCode}</t>
+  </si>
+  <si>
+    <t>create(ProductCategoryResource)</t>
+  </si>
+  <si>
+    <t>update(String, ProductCategoryResource)</t>
+  </si>
+  <si>
+    <t>com.example.sms.presentation.api.system.auth</t>
+  </si>
+  <si>
+    <t>AuthApiController</t>
+  </si>
+  <si>
+    <t>authenticateUser(LoginRequest)</t>
+  </si>
+  <si>
+    <t>認証API</t>
+  </si>
+  <si>
+    <t>[AuthApiService, AuthenticationManager, UserManagementService]</t>
+  </si>
+  <si>
+    <t>/api/auth/signin</t>
+  </si>
+  <si>
+    <t>registerUser(SignupRequest)</t>
+  </si>
+  <si>
+    <t>[PasswordEncoder, RoleName, UserManagementService]</t>
+  </si>
+  <si>
+    <t>/api/auth/signup</t>
+  </si>
+  <si>
+    <t>com.example.sms.presentation.api.system.user</t>
+  </si>
+  <si>
+    <t>UserApiController</t>
+  </si>
+  <si>
+    <t>ユーザーAPI</t>
+  </si>
+  <si>
+    <t>[UserManagementService]</t>
+  </si>
+  <si>
+    <t>/api/users/</t>
+  </si>
+  <si>
+    <t>/api/users/{userId}</t>
+  </si>
+  <si>
+    <t>create(UserResource)</t>
+  </si>
+  <si>
+    <t>[Message, PasswordEncoder, UserManagementService]</t>
+  </si>
+  <si>
+    <t>update(String, UserResource)</t>
+  </si>
+  <si>
+    <t>[Message, UserManagementService]</t>
+  </si>
+  <si>
     <t>com.example.sms.presentation.api</t>
   </si>
   <si>
@@ -78,195 +267,6 @@
     <t>/api/test/admin</t>
   </si>
   <si>
-    <t>com.example.sms.presentation.api.system.auth</t>
-  </si>
-  <si>
-    <t>AuthApiController</t>
-  </si>
-  <si>
-    <t>authenticateUser(LoginRequest)</t>
-  </si>
-  <si>
-    <t>ResponseEntity</t>
-  </si>
-  <si>
-    <t>認証API</t>
-  </si>
-  <si>
-    <t>[AuthApiService, AuthenticationManager, UserManagementService]</t>
-  </si>
-  <si>
-    <t>/api/auth/signin</t>
-  </si>
-  <si>
-    <t>registerUser(SignupRequest)</t>
-  </si>
-  <si>
-    <t>[PasswordEncoder, RoleName, UserManagementService]</t>
-  </si>
-  <si>
-    <t>/api/auth/signup</t>
-  </si>
-  <si>
-    <t>com.example.sms.presentation.api.system.user</t>
-  </si>
-  <si>
-    <t>UserApiController</t>
-  </si>
-  <si>
-    <t>select(int, int[])</t>
-  </si>
-  <si>
-    <t>ユーザーAPI</t>
-  </si>
-  <si>
-    <t>[UserManagementService]</t>
-  </si>
-  <si>
-    <t>/api/users/</t>
-  </si>
-  <si>
-    <t>find(String)</t>
-  </si>
-  <si>
-    <t>/api/users/{userId}</t>
-  </si>
-  <si>
-    <t>create(UserResource)</t>
-  </si>
-  <si>
-    <t>[Message, PasswordEncoder, UserManagementService]</t>
-  </si>
-  <si>
-    <t>update(String, UserResource)</t>
-  </si>
-  <si>
-    <t>delete(String)</t>
-  </si>
-  <si>
-    <t>[Message, UserManagementService]</t>
-  </si>
-  <si>
-    <t>com.example.sms.presentation.api.master.department</t>
-  </si>
-  <si>
-    <t>DepartmentApiController</t>
-  </si>
-  <si>
-    <t>部門API</t>
-  </si>
-  <si>
-    <t>[DepartmentService]</t>
-  </si>
-  <si>
-    <t>/api/departments/</t>
-  </si>
-  <si>
-    <t>find(String, String)</t>
-  </si>
-  <si>
-    <t>[DateTimeFormatter, DepartmentService]</t>
-  </si>
-  <si>
-    <t>/api/departments/{departmentCode}/{departmentStartDate}</t>
-  </si>
-  <si>
-    <t>create(DepartmentResource)</t>
-  </si>
-  <si>
-    <t>[DateTimeFormatter, DepartmentService, Message]</t>
-  </si>
-  <si>
-    <t>update(String, String, DepartmentResource)</t>
-  </si>
-  <si>
-    <t>delete(String, String)</t>
-  </si>
-  <si>
-    <t>com.example.sms.presentation.api.master.product</t>
-  </si>
-  <si>
-    <t>ProductApiController</t>
-  </si>
-  <si>
-    <t>商品API</t>
-  </si>
-  <si>
-    <t>[ProductService]</t>
-  </si>
-  <si>
-    <t>/api/products/</t>
-  </si>
-  <si>
-    <t>selectBoms(int, int[])</t>
-  </si>
-  <si>
-    <t>/api/products/boms</t>
-  </si>
-  <si>
-    <t>select(String)</t>
-  </si>
-  <si>
-    <t>/api/products/{productCode}</t>
-  </si>
-  <si>
-    <t>create(ProductResource)</t>
-  </si>
-  <si>
-    <t>[Message, ProductService]</t>
-  </si>
-  <si>
-    <t>update(String, ProductResource)</t>
-  </si>
-  <si>
-    <t>ProductCategoryApiController</t>
-  </si>
-  <si>
-    <t>商品分類API</t>
-  </si>
-  <si>
-    <t>/api/product/categories/</t>
-  </si>
-  <si>
-    <t>/api/product/categories/{productCategoryCode}</t>
-  </si>
-  <si>
-    <t>create(ProductCategoryResource)</t>
-  </si>
-  <si>
-    <t>update(String, ProductCategoryResource)</t>
-  </si>
-  <si>
-    <t>com.example.sms.presentation.api.master.employee</t>
-  </si>
-  <si>
-    <t>EmployeeApiController</t>
-  </si>
-  <si>
-    <t>社員API</t>
-  </si>
-  <si>
-    <t>[EmployeeService]</t>
-  </si>
-  <si>
-    <t>/api/employees/</t>
-  </si>
-  <si>
-    <t>/api/employees/{employeeCode}</t>
-  </si>
-  <si>
-    <t>create(EmployeeResource)</t>
-  </si>
-  <si>
-    <t>[DateTimeFormatter, EmployeeService, Message]</t>
-  </si>
-  <si>
-    <t>update(String, EmployeeResource)</t>
-  </si>
-  <si>
-    <t>[EmployeeService, Message]</t>
-  </si>
-  <si>
     <t>イベントハンドラ</t>
   </si>
   <si>
@@ -913,9 +913,6 @@
   </si>
   <si>
     <t>Optional&lt;Product&gt;</t>
-  </si>
-  <si>
-    <t>[public.商品マスタ]</t>
   </si>
   <si>
     <t>selectAllBoms()</t>
@@ -993,14 +990,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.95703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.88671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="34.359375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="15.1328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="9.6484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="51.9765625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.64453125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="47.17578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.2734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.16015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="36.234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="13.2890625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="7.58984375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="55.671875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="3.9296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="50.25390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1043,16 +1040,16 @@
         <v>12</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -1063,22 +1060,22 @@
         <v>10</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G3" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -1089,672 +1086,672 @@
         <v>10</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>27</v>
-      </c>
       <c r="G6" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G7" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="s" s="0">
         <v>29</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="G8" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H8" t="s" s="0">
-        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="C9" t="s" s="0">
-        <v>37</v>
-      </c>
       <c r="D9" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G9" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H10" t="s" s="0">
         <v>29</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="G10" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="H10" t="s" s="0">
-        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H11" t="s" s="0">
         <v>29</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="G11" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H11" t="s" s="0">
-        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G12" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G13" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="D14" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="s" s="0">
         <v>43</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="G14" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H14" t="s" s="0">
-        <v>46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G15" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H16" t="s" s="0">
         <v>43</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="F16" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="G16" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H16" t="s" s="0">
-        <v>49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G17" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="G18" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="G19" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G20" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G21" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="H21" t="s" s="0">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G22" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="H22" t="s" s="0">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B23" t="s" s="0">
-        <v>66</v>
-      </c>
       <c r="C23" t="s" s="0">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F23" t="s" s="0">
         <v>57</v>
       </c>
       <c r="G23" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H23" t="s" s="0">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B24" t="s" s="0">
-        <v>66</v>
-      </c>
       <c r="C24" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="G24" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H24" t="s" s="0">
         <v>61</v>
-      </c>
-      <c r="D24" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E24" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="F24" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="G24" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H24" t="s" s="0">
-        <v>69</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="G25" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="s" s="0">
         <v>66</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="D25" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E25" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="F25" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="G25" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H25" t="s" s="0">
-        <v>68</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="G26" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H26" t="s" s="0">
         <v>67</v>
-      </c>
-      <c r="F26" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="G26" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H26" t="s" s="0">
-        <v>69</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="G27" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H27" t="s" s="0">
         <v>66</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="D27" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E27" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="F27" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="G27" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H27" t="s" s="0">
-        <v>69</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G28" t="n" s="0">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H28" t="s" s="0">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G29" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H29" t="s" s="0">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30">
@@ -1765,22 +1762,22 @@
         <v>73</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G30" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H30" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
@@ -1791,22 +1788,22 @@
         <v>73</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="F31" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="G31" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H31" t="s" s="0">
         <v>79</v>
-      </c>
-      <c r="G31" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H31" t="s" s="0">
-        <v>77</v>
       </c>
     </row>
     <row r="32">
@@ -1817,22 +1814,22 @@
         <v>73</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="F32" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="G32" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H32" t="s" s="0">
         <v>81</v>
-      </c>
-      <c r="G32" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H32" t="s" s="0">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1849,21 +1846,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.7734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.56640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="40.46484375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="22.76171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.55078125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="16.71484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="25.88671875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="19.87890625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="18.296875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="22.8203125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="5.64453125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="75.80078125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="44.96484375" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="6.94140625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="9.33984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.6484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.15234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="42.66015625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="23.453125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="8.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="10.9296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="18.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.9296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.9296875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="24.28125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="3.9296875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="79.98828125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="48.078125" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="5.91015625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="8.5546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1948,7 +1945,7 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M2" t="s" s="0">
         <v>99</v>
@@ -1995,7 +1992,7 @@
         <v>0.0</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M3" t="s" s="0">
         <v>104</v>
@@ -2042,7 +2039,7 @@
         <v>0.0</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M4" t="s" s="0">
         <v>109</v>
@@ -2089,7 +2086,7 @@
         <v>0.0</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M5" t="s" s="0">
         <v>113</v>
@@ -2183,7 +2180,7 @@
         <v>0.0</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M7" t="s" s="0">
         <v>113</v>
@@ -2277,7 +2274,7 @@
         <v>0.0</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M9" t="s" s="0">
         <v>124</v>
@@ -2324,7 +2321,7 @@
         <v>0.0</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M10" t="s" s="0">
         <v>124</v>
@@ -2409,7 +2406,7 @@
         <v>108</v>
       </c>
       <c r="I12" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s" s="0">
         <v>98</v>
@@ -2418,7 +2415,7 @@
         <v>0.0</v>
       </c>
       <c r="L12" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M12" t="s" s="0">
         <v>131</v>
@@ -2456,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="0">
         <v>98</v>
@@ -2465,7 +2462,7 @@
         <v>0.0</v>
       </c>
       <c r="L13" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M13" t="s" s="0">
         <v>135</v>
@@ -2512,7 +2509,7 @@
         <v>0.0</v>
       </c>
       <c r="L14" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M14" t="s" s="0">
         <v>142</v>
@@ -2559,7 +2556,7 @@
         <v>0.0</v>
       </c>
       <c r="L15" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M15" t="s" s="0">
         <v>116</v>
@@ -2606,7 +2603,7 @@
         <v>0.0</v>
       </c>
       <c r="L16" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M16" t="s" s="0">
         <v>113</v>
@@ -2653,7 +2650,7 @@
         <v>0.0</v>
       </c>
       <c r="L17" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M17" t="s" s="0">
         <v>113</v>
@@ -2691,7 +2688,7 @@
         <v>152</v>
       </c>
       <c r="I18" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s" s="0">
         <v>112</v>
@@ -2700,7 +2697,7 @@
         <v>0.0</v>
       </c>
       <c r="L18" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M18" t="s" s="0">
         <v>153</v>
@@ -2738,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s" s="0">
         <v>112</v>
@@ -2747,7 +2744,7 @@
         <v>0.0</v>
       </c>
       <c r="L19" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M19" t="s" s="0">
         <v>156</v>
@@ -2794,7 +2791,7 @@
         <v>0.0</v>
       </c>
       <c r="L20" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M20" t="s" s="0">
         <v>164</v>
@@ -2861,7 +2858,7 @@
         <v>158</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s" s="0">
         <v>171</v>
@@ -2879,7 +2876,7 @@
         <v>173</v>
       </c>
       <c r="I22" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="0">
         <v>163</v>
@@ -2888,7 +2885,7 @@
         <v>0.0</v>
       </c>
       <c r="L22" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M22" t="s" s="0">
         <v>174</v>
@@ -2926,7 +2923,7 @@
         <v>178</v>
       </c>
       <c r="I23" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s" s="0">
         <v>168</v>
@@ -2935,7 +2932,7 @@
         <v>0.0</v>
       </c>
       <c r="L23" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M23" t="s" s="0">
         <v>179</v>
@@ -2982,7 +2979,7 @@
         <v>0.0</v>
       </c>
       <c r="L24" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M24" t="s" s="0">
         <v>181</v>
@@ -3076,7 +3073,7 @@
         <v>0.0</v>
       </c>
       <c r="L26" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M26" t="s" s="0">
         <v>181</v>
@@ -3170,7 +3167,7 @@
         <v>0.0</v>
       </c>
       <c r="L28" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M28" t="s" s="0">
         <v>181</v>
@@ -3264,7 +3261,7 @@
         <v>0.0</v>
       </c>
       <c r="L30" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M30" t="s" s="0">
         <v>181</v>
@@ -3311,7 +3308,7 @@
         <v>0.0</v>
       </c>
       <c r="L31" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M31" t="s" s="0">
         <v>195</v>
@@ -3358,7 +3355,7 @@
         <v>0.0</v>
       </c>
       <c r="L32" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M32" t="s" s="0">
         <v>181</v>
@@ -3405,7 +3402,7 @@
         <v>0.0</v>
       </c>
       <c r="L33" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M33" t="s" s="0">
         <v>195</v>
@@ -3490,7 +3487,7 @@
         <v>204</v>
       </c>
       <c r="I35" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J35" t="s" s="0">
         <v>163</v>
@@ -3499,7 +3496,7 @@
         <v>0.0</v>
       </c>
       <c r="L35" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M35" t="s" s="0">
         <v>205</v>
@@ -3537,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J36" t="s" s="0">
         <v>163</v>
@@ -3546,7 +3543,7 @@
         <v>0.0</v>
       </c>
       <c r="L36" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M36" t="s" s="0">
         <v>209</v>
@@ -3584,7 +3581,7 @@
         <v>212</v>
       </c>
       <c r="I37" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J37" t="s" s="0">
         <v>168</v>
@@ -3593,7 +3590,7 @@
         <v>0.0</v>
       </c>
       <c r="L37" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M37" t="s" s="0">
         <v>213</v>
@@ -3631,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J38" t="s" s="0">
         <v>168</v>
@@ -3640,7 +3637,7 @@
         <v>0.0</v>
       </c>
       <c r="L38" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M38" t="s" s="0">
         <v>217</v>
@@ -3678,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J39" t="s" s="0">
         <v>163</v>
@@ -3687,7 +3684,7 @@
         <v>0.0</v>
       </c>
       <c r="L39" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M39" t="s" s="0">
         <v>219</v>
@@ -3710,7 +3707,7 @@
         <v>222</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="E40" t="s" s="0">
         <v>94</v>
@@ -3734,7 +3731,7 @@
         <v>0.0</v>
       </c>
       <c r="L40" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M40" t="s" s="0">
         <v>227</v>
@@ -3757,7 +3754,7 @@
         <v>228</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="E41" t="s" s="0">
         <v>0</v>
@@ -3772,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J41" t="s" s="0">
         <v>226</v>
@@ -3781,7 +3778,7 @@
         <v>0.0</v>
       </c>
       <c r="L41" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M41" t="s" s="0">
         <v>230</v>
@@ -3819,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J42" t="s" s="0">
         <v>226</v>
@@ -3828,7 +3825,7 @@
         <v>0.0</v>
       </c>
       <c r="L42" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M42" t="s" s="0">
         <v>234</v>
@@ -3866,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J43" t="s" s="0">
         <v>226</v>
@@ -3875,7 +3872,7 @@
         <v>0.0</v>
       </c>
       <c r="L43" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M43" t="s" s="0">
         <v>234</v>
@@ -3913,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J44" t="s" s="0">
         <v>226</v>
@@ -3922,7 +3919,7 @@
         <v>0.0</v>
       </c>
       <c r="L44" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M44" t="s" s="0">
         <v>242</v>
@@ -3969,7 +3966,7 @@
         <v>0.0</v>
       </c>
       <c r="L45" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M45" t="s" s="0">
         <v>250</v>
@@ -4016,7 +4013,7 @@
         <v>0.0</v>
       </c>
       <c r="L46" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M46" t="s" s="0">
         <v>255</v>
@@ -4063,7 +4060,7 @@
         <v>0.0</v>
       </c>
       <c r="L47" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M47" t="s" s="0">
         <v>259</v>
@@ -4110,7 +4107,7 @@
         <v>0.0</v>
       </c>
       <c r="L48" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M48" t="s" s="0">
         <v>259</v>
@@ -4148,7 +4145,7 @@
         <v>263</v>
       </c>
       <c r="I49" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J49" t="s" s="0">
         <v>249</v>
@@ -4157,7 +4154,7 @@
         <v>0.0</v>
       </c>
       <c r="L49" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M49" t="s" s="0">
         <v>264</v>
@@ -4195,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J50" t="s" s="0">
         <v>249</v>
@@ -4204,7 +4201,7 @@
         <v>0.0</v>
       </c>
       <c r="L50" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M50" t="s" s="0">
         <v>267</v>
@@ -4230,20 +4227,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.7734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.7890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.953125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="22.76171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="15.1328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="19.87890625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="18.296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="5.64453125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="18.1953125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="11.41796875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="18.1953125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="17.11328125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="11.96875" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="13.55078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.6484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.07421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="28.92578125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="23.453125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="9.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="12.9296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.9296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="3.9296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.48828125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="10.7890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="14.48828125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="13.9296875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="7.9296875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="8.9296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4310,19 +4307,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H2" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s" s="0">
         <v>276</v>
@@ -4360,13 +4357,13 @@
         <v>0.0</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="L3" t="s" s="0">
         <v>278</v>
@@ -4398,22 +4395,22 @@
         <v>108</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H4" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="0">
         <v>278</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M4" t="n" s="0">
         <v>1.0</v>
@@ -4448,16 +4445,16 @@
         <v>1.0</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="0">
         <v>278</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n" s="0">
         <v>1.0</v>
@@ -4501,7 +4498,7 @@
         <v>282</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M6" t="n" s="0">
         <v>1.0</v>
@@ -4530,22 +4527,22 @@
         <v>108</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H7" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="0">
         <v>278</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M7" t="n" s="0">
         <v>1.0</v>
@@ -4574,22 +4571,22 @@
         <v>0</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H8" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="0">
         <v>278</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M8" t="n" s="0">
         <v>1.0</v>
@@ -4618,19 +4615,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H9" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="L9" t="s" s="0">
         <v>276</v>
@@ -4668,13 +4665,13 @@
         <v>0.0</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="L10" t="s" s="0">
         <v>278</v>
@@ -4712,16 +4709,16 @@
         <v>1.0</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="0">
         <v>278</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="L11" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M11" t="n" s="0">
         <v>2.0</v>
@@ -4765,7 +4762,7 @@
         <v>287</v>
       </c>
       <c r="L12" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M12" t="n" s="0">
         <v>2.0</v>
@@ -4794,22 +4791,22 @@
         <v>152</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H13" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="I13" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="0">
         <v>278</v>
       </c>
       <c r="K13" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="L13" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M13" t="n" s="0">
         <v>1.0</v>
@@ -4838,22 +4835,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H14" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="I14" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="0">
         <v>278</v>
       </c>
       <c r="K14" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="L14" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M14" t="n" s="0">
         <v>1.0</v>
@@ -4882,19 +4879,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H15" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="I15" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="L15" t="s" s="0">
         <v>278</v>
@@ -4932,13 +4929,13 @@
         <v>0.0</v>
       </c>
       <c r="I16" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="L16" t="s" s="0">
         <v>278</v>
@@ -4970,22 +4967,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H17" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="I17" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s" s="0">
         <v>278</v>
       </c>
       <c r="K17" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="L17" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M17" t="n" s="0">
         <v>1.0</v>
@@ -5029,7 +5026,7 @@
         <v>293</v>
       </c>
       <c r="L18" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M18" t="n" s="0">
         <v>1.0</v>
@@ -5058,22 +5055,22 @@
         <v>212</v>
       </c>
       <c r="G19" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H19" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="I19" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s" s="0">
         <v>278</v>
       </c>
       <c r="K19" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="L19" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M19" t="n" s="0">
         <v>1.0</v>
@@ -5102,22 +5099,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H20" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="I20" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s" s="0">
         <v>278</v>
       </c>
       <c r="K20" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="L20" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M20" t="n" s="0">
         <v>1.0</v>
@@ -5146,19 +5143,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H21" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="I21" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="L21" t="s" s="0">
         <v>295</v>
@@ -5196,13 +5193,13 @@
         <v>3.0</v>
       </c>
       <c r="I22" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="K22" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="L22" t="s" s="0">
         <v>278</v>
@@ -5234,22 +5231,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H23" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="I23" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s" s="0">
         <v>278</v>
       </c>
       <c r="K23" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="L23" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M23" t="n" s="0">
         <v>1.0</v>
@@ -5281,19 +5278,19 @@
         <v>162</v>
       </c>
       <c r="H24" t="n" s="0">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="I24" t="s" s="0">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="0">
         <v>278</v>
       </c>
       <c r="K24" t="s" s="0">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="L24" t="s" s="0">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="M24" t="n" s="0">
         <v>1.0</v>
@@ -5322,22 +5319,22 @@
         <v>204</v>
       </c>
       <c r="G25" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H25" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="I25" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s" s="0">
         <v>278</v>
       </c>
       <c r="K25" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="L25" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M25" t="n" s="0">
         <v>1.0</v>
@@ -5354,7 +5351,7 @@
         <v>294</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D26" t="s" s="0">
         <v>207</v>
@@ -5366,22 +5363,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H26" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="I26" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s" s="0">
         <v>278</v>
       </c>
       <c r="K26" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="L26" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M26" t="n" s="0">
         <v>1.0</v>
@@ -5410,22 +5407,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H27" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="I27" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J27" t="s" s="0">
         <v>278</v>
       </c>
       <c r="K27" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="L27" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M27" t="n" s="0">
         <v>1.0</v>
@@ -5439,37 +5436,37 @@
         <v>220</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>290</v>
       </c>
       <c r="D28" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="E28" t="s" s="0">
         <v>301</v>
       </c>
-      <c r="E28" t="s" s="0">
+      <c r="F28" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="H28" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I28" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="J28" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="F28" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="G28" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="H28" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="I28" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="J28" t="s" s="0">
-        <v>303</v>
-      </c>
       <c r="K28" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="L28" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M28" t="n" s="0">
         <v>1.0</v>
@@ -5483,37 +5480,37 @@
         <v>220</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F29" t="s" s="0">
         <v>0</v>
       </c>
       <c r="G29" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H29" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="I29" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="K29" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="L29" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M29" t="n" s="0">
         <v>1.0</v>
@@ -5527,37 +5524,37 @@
         <v>220</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>228</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F30" t="s" s="0">
         <v>0</v>
       </c>
       <c r="G30" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H30" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="I30" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J30" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="L30" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M30" t="n" s="0">
         <v>1.0</v>
@@ -5571,7 +5568,7 @@
         <v>220</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>231</v>
@@ -5580,28 +5577,28 @@
         <v>232</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F31" t="s" s="0">
         <v>0</v>
       </c>
       <c r="G31" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H31" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="I31" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J31" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="L31" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M31" t="n" s="0">
         <v>1.0</v>
@@ -5615,7 +5612,7 @@
         <v>243</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>275</v>
@@ -5624,28 +5621,28 @@
         <v>93</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F32" t="s" s="0">
         <v>0</v>
       </c>
       <c r="G32" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H32" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="I32" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J32" t="s" s="0">
         <v>276</v>
       </c>
       <c r="K32" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="L32" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M32" t="n" s="0">
         <v>0.0</v>
@@ -5659,37 +5656,37 @@
         <v>243</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D33" t="s" s="0">
         <v>93</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F33" t="s" s="0">
         <v>0</v>
       </c>
       <c r="G33" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H33" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="I33" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J33" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="K33" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="L33" t="s" s="0">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M33" t="n" s="0">
         <v>1.0</v>
@@ -5703,37 +5700,37 @@
         <v>243</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>290</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F34" t="s" s="0">
         <v>0</v>
       </c>
       <c r="G34" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H34" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="I34" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J34" t="s" s="0">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K34" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="L34" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M34" t="n" s="0">
         <v>1.0</v>
@@ -5747,7 +5744,7 @@
         <v>243</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>260</v>
@@ -5756,7 +5753,7 @@
         <v>93</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F35" t="s" s="0">
         <v>0</v>
@@ -5768,16 +5765,16 @@
         <v>1.0</v>
       </c>
       <c r="I35" t="s" s="0">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J35" t="s" s="0">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K35" t="s" s="0">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L35" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M35" t="n" s="0">
         <v>1.0</v>
@@ -5791,7 +5788,7 @@
         <v>243</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>130</v>
@@ -5800,28 +5797,28 @@
         <v>262</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F36" t="s" s="0">
         <v>263</v>
       </c>
       <c r="G36" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H36" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="I36" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J36" t="s" s="0">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K36" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="L36" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M36" t="n" s="0">
         <v>1.0</v>
@@ -5835,7 +5832,7 @@
         <v>243</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>132</v>
@@ -5844,28 +5841,28 @@
         <v>265</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F37" t="s" s="0">
         <v>0</v>
       </c>
       <c r="G37" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H37" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="I37" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J37" t="s" s="0">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K37" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="L37" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M37" t="n" s="0">
         <v>1.0</v>
